--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C4C57-3606-D541-AF91-64FDFF3965CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A479FB85-1B7F-E44A-AA44-376FAC07F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkt" sheetId="1" r:id="rId1"/>
     <sheet name="Material" sheetId="2" r:id="rId2"/>
     <sheet name="Fixkosten" sheetId="3" r:id="rId3"/>
+    <sheet name="Variablen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>1. Material - Beschreibung</t>
   </si>
@@ -140,6 +141,18 @@
   </si>
   <si>
     <t>Modeschau</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Wert</t>
+  </si>
+  <si>
+    <t>Rücksendekosten</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -503,7 +516,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -947,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55978B38-B140-6641-A8C9-1B071436B0E7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -986,13 +999,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552D7A01-3CD9-4843-9EB8-8AC2EBDD22C7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1134,15 +1179,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1166,17 +1222,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A479FB85-1B7F-E44A-AA44-376FAC07F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E3512E-8632-DC4D-8F41-76D45DAC6CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>1. Material - Beschreibung</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Cargohose</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Baumwolle</t>
@@ -515,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -533,19 +530,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>135</v>
@@ -588,7 +585,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>160</v>
@@ -601,7 +598,7 @@
         <v>3000</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>2.5</v>
@@ -627,7 +624,7 @@
         <v>5000</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -641,7 +638,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>65</v>
@@ -650,21 +647,15 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>1.5</v>
       </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>37.5</v>
@@ -673,21 +664,15 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>0.5</v>
       </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -699,21 +684,15 @@
         <v>6000</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>1.5</v>
       </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -727,16 +706,10 @@
       <c r="G8">
         <v>1.5</v>
       </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>150</v>
@@ -749,7 +722,7 @@
         <v>4200</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -763,7 +736,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>225</v>
@@ -775,21 +748,15 @@
         <v>4000</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>1.5</v>
       </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>90</v>
@@ -801,21 +768,15 @@
         <v>12000</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>1.5</v>
       </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>60</v>
@@ -827,16 +788,10 @@
         <v>15000</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>0.5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -864,18 +819,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>4.5</v>
@@ -897,7 +852,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -908,7 +863,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>6.5</v>
@@ -930,7 +885,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -941,7 +896,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1.25</v>
@@ -972,15 +927,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>94000</v>
@@ -988,7 +943,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>2250000</v>
@@ -1003,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552D7A01-3CD9-4843-9EB8-8AC2EBDD22C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1015,18 +970,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1041,6 +996,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AED214031F7E024FB76640D948FD5950" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5304f045f5abf8a2a6fd79f3cf7a33b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b005e430761d8441af683b9762c19bae" ns2:_="">
     <xsd:import namespace="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
@@ -1178,15 +1142,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
   <ds:schemaRefs>
@@ -1204,6 +1159,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A43E1-E761-4DD7-9F75-67699012D606}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1219,12 +1182,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E3512E-8632-DC4D-8F41-76D45DAC6CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6893F11E-2AE4-3947-AFAD-ECB61E42F523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkt" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B6EE40-1C94-2E48-BE0A-BB4D5DDD6BD4}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -990,21 +990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AED214031F7E024FB76640D948FD5950" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5304f045f5abf8a2a6fd79f3cf7a33b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b005e430761d8441af683b9762c19bae" ns2:_="">
     <xsd:import namespace="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
@@ -1142,31 +1127,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A43E1-E761-4DD7-9F75-67699012D606}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1182,4 +1158,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardzimmermann/Nextcloud/Studium/Semester 5/Operation Research/Operations-Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6893F11E-2AE4-3947-AFAD-ECB61E42F523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E8807B-0E58-DC46-AF32-3DD8743DF404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkt" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -593,6 +593,9 @@
       <c r="C3">
         <v>70</v>
       </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
       <c r="E3">
         <f xml:space="preserve"> 0.6 * 5000</f>
         <v>3000</v>
@@ -716,6 +719,9 @@
       </c>
       <c r="C9">
         <v>80</v>
+      </c>
+      <c r="D9">
+        <v>7000</v>
       </c>
       <c r="E9">
         <f>7000 * 0.6</f>
@@ -806,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B6EE40-1C94-2E48-BE0A-BB4D5DDD6BD4}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -990,6 +996,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AED214031F7E024FB76640D948FD5950" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5304f045f5abf8a2a6fd79f3cf7a33b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b005e430761d8441af683b9762c19bae" ns2:_="">
     <xsd:import namespace="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
@@ -1127,22 +1148,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A43E1-E761-4DD7-9F75-67699012D606}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1158,28 +1188,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardzimmermann/Nextcloud/Studium/Semester 5/Operation Research/Operations-Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E8807B-0E58-DC46-AF32-3DD8743DF404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E3E53-C584-8F4F-9419-EFB7B564C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8200" yWindow="-19160" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkt" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -996,21 +996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AED214031F7E024FB76640D948FD5950" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5304f045f5abf8a2a6fd79f3cf7a33b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b005e430761d8441af683b9762c19bae" ns2:_="">
     <xsd:import namespace="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
@@ -1148,31 +1133,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A43E1-E761-4DD7-9F75-67699012D606}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1188,4 +1164,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E3E53-C584-8F4F-9419-EFB7B564C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286ED64-767B-824F-ACBE-0E1E284B8BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="-19160" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15500" yWindow="-16600" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkt" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,6 +567,9 @@
       <c r="C2">
         <v>60</v>
       </c>
+      <c r="D2">
+        <v>10000000000</v>
+      </c>
       <c r="E2">
         <v>2800</v>
       </c>
@@ -649,6 +652,9 @@
       <c r="C5">
         <v>30</v>
       </c>
+      <c r="D5">
+        <v>10000000000</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -666,6 +672,9 @@
       <c r="C6">
         <v>20</v>
       </c>
+      <c r="D6">
+        <v>10000000000</v>
+      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -702,6 +711,9 @@
       </c>
       <c r="C8">
         <v>45</v>
+      </c>
+      <c r="D8">
+        <v>10000000000</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -813,7 +825,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286ED64-767B-824F-ACBE-0E1E284B8BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F886F8F1-0765-9B47-95A7-CCEEEEEDC048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15500" yWindow="-16600" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,9 +567,6 @@
       <c r="C2">
         <v>60</v>
       </c>
-      <c r="D2">
-        <v>10000000000</v>
-      </c>
       <c r="E2">
         <v>2800</v>
       </c>
@@ -652,9 +649,6 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>10000000000</v>
-      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -672,9 +666,6 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>10000000000</v>
-      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -711,9 +702,6 @@
       </c>
       <c r="C8">
         <v>45</v>
-      </c>
-      <c r="D8">
-        <v>10000000000</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>

--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F886F8F1-0765-9B47-95A7-CCEEEEEDC048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59DAA86-839E-EC4A-85C2-3DBEC7B1592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15500" yWindow="-16600" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9920" yWindow="-16640" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkt" sheetId="1" r:id="rId1"/>
@@ -567,6 +567,9 @@
       <c r="C2">
         <v>60</v>
       </c>
+      <c r="D2">
+        <v>100000000</v>
+      </c>
       <c r="E2">
         <v>2800</v>
       </c>
@@ -649,6 +652,9 @@
       <c r="C5">
         <v>30</v>
       </c>
+      <c r="D5">
+        <v>100000000</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -666,6 +672,9 @@
       <c r="C6">
         <v>20</v>
       </c>
+      <c r="D6">
+        <v>100000000</v>
+      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -702,6 +711,9 @@
       </c>
       <c r="C8">
         <v>45</v>
+      </c>
+      <c r="D8">
+        <v>100000000</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -813,7 +825,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,7 +865,7 @@
         <v>0.75</v>
       </c>
       <c r="C3">
-        <v>28000</v>
+        <v>28001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,6 +1008,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AED214031F7E024FB76640D948FD5950" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5304f045f5abf8a2a6fd79f3cf7a33b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b005e430761d8441af683b9762c19bae" ns2:_="">
     <xsd:import namespace="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
@@ -1133,22 +1160,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A43E1-E761-4DD7-9F75-67699012D606}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1164,28 +1200,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59DAA86-839E-EC4A-85C2-3DBEC7B1592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADFEC5F-5CCB-2D40-B68C-8E46BAC10F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9920" yWindow="-16640" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,9 +567,6 @@
       <c r="C2">
         <v>60</v>
       </c>
-      <c r="D2">
-        <v>100000000</v>
-      </c>
       <c r="E2">
         <v>2800</v>
       </c>
@@ -652,9 +649,6 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>100000000</v>
-      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -672,9 +666,6 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>100000000</v>
-      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -711,9 +702,6 @@
       </c>
       <c r="C8">
         <v>45</v>
-      </c>
-      <c r="D8">
-        <v>100000000</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -1008,21 +996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AED214031F7E024FB76640D948FD5950" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5304f045f5abf8a2a6fd79f3cf7a33b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b005e430761d8441af683b9762c19bae" ns2:_="">
     <xsd:import namespace="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
@@ -1160,31 +1133,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A43E1-E761-4DD7-9F75-67699012D606}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1200,4 +1164,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Produktionsplanung.xlsx
+++ b/Produktionsplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/development/OperationsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADFEC5F-5CCB-2D40-B68C-8E46BAC10F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4704D33-539D-904B-B655-69E124509AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="-16640" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkt" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -996,6 +996,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AED214031F7E024FB76640D948FD5950" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5304f045f5abf8a2a6fd79f3cf7a33b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b005e430761d8441af683b9762c19bae" ns2:_="">
     <xsd:import namespace="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
@@ -1133,22 +1148,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A43E1-E761-4DD7-9F75-67699012D606}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1164,28 +1188,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC03C23-D6E8-4139-81CC-07BD05490AB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8282A036-8EF6-43C3-9A77-E061937AACA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b124e3ab-2c59-43c0-bd7b-ba8f7c2d92b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>